--- a/ume-quickstart-tool/input/design-table/org.umeframework.quickstart.sample.entity/DB设计样例-唱片信息管理表_v1.0.xlsx
+++ b/ume-quickstart-tool/input/design-table/org.umeframework.quickstart.sample.entity/DB设计样例-唱片信息管理表_v1.0.xlsx
@@ -1,30 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27309"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mmayye/Documents/Workspaces/ws_dora/ume-quickstart-tool/input/design-table/org.umeframework.quickstart.sample.entity/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspaces\ws_ume\ume-quickstart\ume-quickstart-tool\input\design-table\org.umeframework.quickstart.sample.entity\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEDD6538-320D-4FDF-AAF0-6AE06487DC49}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="24980" windowHeight="15540" tabRatio="779" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="456" windowWidth="24984" windowHeight="15540" tabRatio="779" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#R" sheetId="17" r:id="rId1"/>
-    <sheet name="ALBUM_BASIC" sheetId="44" r:id="rId2"/>
+    <sheet name="ALBUM" sheetId="44" r:id="rId2"/>
     <sheet name="ALBUM_TRACK" sheetId="46" r:id="rId3"/>
     <sheet name="ALBUM_CONTRIBUTOR" sheetId="45" r:id="rId4"/>
     <sheet name="ALBUM_GENRE" sheetId="47" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">ALBUM_BASIC!$A$1:$I$22</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">ALBUM!$A$1:$I$22</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">ALBUM_CONTRIBUTOR!$A$1:$I$18</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">ALBUM_GENRE!$A$1:$I$18</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">ALBUM_TRACK!$A$1:$I$18</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="181029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -37,12 +38,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="G5" authorId="0">
+    <comment ref="G5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -63,12 +64,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="G5" authorId="0">
+    <comment ref="G5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -89,12 +90,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="G5" authorId="0">
+    <comment ref="G5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -115,12 +116,12 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="G5" authorId="0">
+    <comment ref="G5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
       <text>
         <r>
           <rPr>
@@ -383,17 +384,17 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="7">
-    <numFmt numFmtId="164" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
-    <numFmt numFmtId="165" formatCode="&quot;¥&quot;#,##0.00;[Red]&quot;¥&quot;\-#,##0.00"/>
-    <numFmt numFmtId="166" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="167" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="168" formatCode="#,##0;\-#,##0;&quot;-&quot;"/>
-    <numFmt numFmtId="169" formatCode="0.00_)"/>
-    <numFmt numFmtId="170" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="6" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
+    <numFmt numFmtId="8" formatCode="&quot;¥&quot;#,##0.00;[Red]&quot;¥&quot;\-#,##0.00"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="#,##0;\-#,##0;&quot;-&quot;"/>
+    <numFmt numFmtId="177" formatCode="0.00_)"/>
+    <numFmt numFmtId="178" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="67" x14ac:knownFonts="1">
+  <fonts count="68">
     <font>
       <sz val="10"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -463,12 +464,14 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -611,6 +614,7 @@
       <sz val="11"/>
       <color indexed="23"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -623,30 +627,35 @@
       <sz val="11"/>
       <color indexed="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="17"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="17"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="20"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="20"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -673,6 +682,7 @@
       <sz val="18"/>
       <color indexed="56"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -680,6 +690,7 @@
       <sz val="15"/>
       <color indexed="56"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -687,6 +698,7 @@
       <sz val="13"/>
       <color indexed="56"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -694,6 +706,7 @@
       <sz val="11"/>
       <color indexed="56"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -701,6 +714,7 @@
       <sz val="11"/>
       <color indexed="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -708,6 +722,7 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -715,6 +730,7 @@
       <sz val="11"/>
       <color indexed="52"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -722,24 +738,28 @@
       <sz val="11"/>
       <color indexed="63"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="62"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="60"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="52"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -792,23 +812,33 @@
       <sz val="11"/>
       <color rgb="FF002060"/>
       <name val="Microsoft YaHei Light"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Microsoft YaHei Light"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Microsoft YaHei Light"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Microsoft YaHei Light"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -1187,7 +1217,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="131">
+  <cellStyleXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1264,7 +1294,7 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="15" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
       <alignment horizontal="left"/>
     </xf>
@@ -1281,7 +1311,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="169" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="177" fontId="22" fillId="0" borderId="0"/>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="0">
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1409,9 +1439,6 @@
     <xf numFmtId="0" fontId="40" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="38" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1433,8 +1460,8 @@
     <xf numFmtId="0" fontId="38" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="57" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="left"/>
       <protection locked="0"/>
@@ -1493,11 +1520,11 @@
     <xf numFmtId="0" fontId="53" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="58" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="58" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="6" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="58" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="6" fontId="58" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="1" fontId="44" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="14"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
@@ -1563,34 +1590,34 @@
     <xf numFmtId="49" fontId="65" fillId="31" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="28" borderId="0" xfId="130" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="66" fillId="28" borderId="0" xfId="129" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="28" borderId="0" xfId="130" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="66" fillId="28" borderId="0" xfId="129" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="28" borderId="8" xfId="130" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="66" fillId="28" borderId="8" xfId="129" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="66" fillId="28" borderId="8" xfId="130" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="66" fillId="28" borderId="8" xfId="129" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="28" borderId="8" xfId="130" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="66" fillId="28" borderId="8" xfId="129" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="28" borderId="8" xfId="130" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="66" fillId="28" borderId="8" xfId="129" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="28" borderId="0" xfId="130" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="66" fillId="28" borderId="0" xfId="129" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="28" borderId="0" xfId="130" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="28" borderId="8" xfId="130" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="66" fillId="28" borderId="0" xfId="129" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="28" borderId="8" xfId="129" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="32" borderId="8" xfId="130" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="66" fillId="32" borderId="8" xfId="129" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="63" fillId="29" borderId="8" xfId="84" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1624,144 +1651,146 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="131">
-    <cellStyle name="_20050721　沖縄海邦_格付自己査定　計画書" xfId="1"/>
-    <cellStyle name="_20050907　沖縄海邦_格付自己査定　計画書" xfId="2"/>
-    <cellStyle name="_CISremake_CTP_20130130" xfId="3"/>
-    <cellStyle name="_ＰＯ標準書式２１　コスト計画表" xfId="4"/>
-    <cellStyle name="_コード定義_20130212" xfId="5"/>
-    <cellStyle name="_プロジェクトコスト管理表２００６０４０１" xfId="6"/>
-    <cellStyle name="_別冊1.プロジェクト計画書サンプル" xfId="7"/>
-    <cellStyle name="0.0" xfId="9"/>
-    <cellStyle name="2（タイトル-Lv2）" xfId="10"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="11"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="12"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="13"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="14"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="15"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="16"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="17"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="18"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="19"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="20"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="21"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="22"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="23"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="24"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="25"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="26"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="27"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="28"/>
-    <cellStyle name="args.style" xfId="29"/>
-    <cellStyle name="Body" xfId="30"/>
-    <cellStyle name="Calc Currency (0)" xfId="31"/>
-    <cellStyle name="entry" xfId="32"/>
-    <cellStyle name="Grey" xfId="33"/>
-    <cellStyle name="Head 1" xfId="34"/>
-    <cellStyle name="Header1" xfId="35"/>
-    <cellStyle name="Header2" xfId="36"/>
-    <cellStyle name="IBM(401K)" xfId="37"/>
-    <cellStyle name="Input [yellow]" xfId="38"/>
-    <cellStyle name="J401K" xfId="39"/>
-    <cellStyle name="JT帳票" xfId="40"/>
-    <cellStyle name="Nor}al" xfId="41"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal - Style1" xfId="42"/>
-    <cellStyle name="per.style" xfId="43"/>
-    <cellStyle name="Percent [2]" xfId="44"/>
-    <cellStyle name="price" xfId="45"/>
-    <cellStyle name="PSChar" xfId="46"/>
-    <cellStyle name="PSHeading" xfId="47"/>
-    <cellStyle name="revised" xfId="48"/>
-    <cellStyle name="section" xfId="49"/>
-    <cellStyle name="SPOl" xfId="50"/>
-    <cellStyle name="Style 1" xfId="51"/>
-    <cellStyle name="subhead" xfId="52"/>
-    <cellStyle name="Ｔ２０５" xfId="53"/>
-    <cellStyle name="Ｔ２０５１" xfId="54"/>
-    <cellStyle name="Ｔ２０５２" xfId="55"/>
-    <cellStyle name="Ｔ２０５３" xfId="56"/>
-    <cellStyle name="title" xfId="57"/>
-    <cellStyle name="W_TSTAFFM_SYO_DB" xfId="8"/>
-    <cellStyle name="スタイル 1" xfId="58"/>
-    <cellStyle name="ﾀ" xfId="59"/>
-    <cellStyle name="タイトル" xfId="60"/>
-    <cellStyle name="タイトル-Lｖ1" xfId="61"/>
-    <cellStyle name="パーセント 2" xfId="62"/>
-    <cellStyle name="ハイパーリンク 2" xfId="63"/>
-    <cellStyle name="下点線" xfId="127"/>
-    <cellStyle name="型番" xfId="128"/>
-    <cellStyle name="好" xfId="95"/>
-    <cellStyle name="好_PCISS-ED(ID)-Chg(STD1-2-D97-4)-(20110714)" xfId="96"/>
-    <cellStyle name="好_PCISS-ED(ID)-Chg(STD1-2-D97-4)-(20110714)_ED_C22_4DB" xfId="97"/>
-    <cellStyle name="好_PCISS-ED(ID)-Chg(STD1-4-C21-59)-(20110225)" xfId="98"/>
-    <cellStyle name="好_PCISS-ED(lD)-Chg(STD1-5-E04-14)-(20110820)" xfId="99"/>
-    <cellStyle name="好_PCISS-ED(lD)-Chg(STD1-5-E04-14)-(20110820)_SOL_ED_A40_1Win" xfId="100"/>
-    <cellStyle name="好_PCISS-ED(lD)-Chg(STD1-5-E04-14)-(20110820)_SOL_ED_A40_1Win_~4583742" xfId="101"/>
-    <cellStyle name="差" xfId="87"/>
-    <cellStyle name="差_PCISS-ED(ID)-Chg(STD1-2-D97-4)-(20110714)" xfId="88"/>
-    <cellStyle name="差_PCISS-ED(ID)-Chg(STD1-2-D97-4)-(20110714)_ED_C22_4DB" xfId="89"/>
-    <cellStyle name="差_PCISS-ED(ID)-Chg(STD1-4-C21-59)-(20110225)" xfId="90"/>
-    <cellStyle name="差_PCISS-ED(lD)-Chg(STD1-5-E04-14)-(20110820)" xfId="91"/>
-    <cellStyle name="差_PCISS-ED(lD)-Chg(STD1-5-E04-14)-(20110820)_SOL_ED_A40_1Win" xfId="92"/>
-    <cellStyle name="差_PCISS-ED(lD)-Chg(STD1-5-E04-14)-(20110820)_SOL_ED_A40_1Win_~4583742" xfId="93"/>
-    <cellStyle name="常规_(カスタマイズ仕様申請書Form)_C00-ED(ID)-Chg(カスタマイズ一覧の番号)-(20070720)" xfId="94"/>
-    <cellStyle name="强调文字颜色 1" xfId="114"/>
-    <cellStyle name="强调文字颜色 2" xfId="115"/>
-    <cellStyle name="强调文字颜色 3" xfId="116"/>
-    <cellStyle name="强调文字颜色 4" xfId="117"/>
-    <cellStyle name="强调文字颜色 5" xfId="118"/>
-    <cellStyle name="强调文字颜色 6" xfId="119"/>
-    <cellStyle name="明朝(602R)" xfId="111"/>
-    <cellStyle name="明朝強調(602R)" xfId="112"/>
-    <cellStyle name="未定義" xfId="126"/>
-    <cellStyle name="标题" xfId="65"/>
-    <cellStyle name="标题 1" xfId="66"/>
-    <cellStyle name="标题 2" xfId="67"/>
-    <cellStyle name="标题 3" xfId="68"/>
-    <cellStyle name="标题 4" xfId="69"/>
-    <cellStyle name="标题_PCISS-ED(ID)-Chg(STD1-2-D97-4)-(20110714)" xfId="70"/>
-    <cellStyle name="桁蟻唇Ｆ [0.00]_laroux" xfId="102"/>
-    <cellStyle name="桁蟻唇Ｆ_laroux" xfId="103"/>
-    <cellStyle name="检查单元格" xfId="107"/>
-    <cellStyle name="標準 2" xfId="71"/>
-    <cellStyle name="標準 2 2" xfId="72"/>
-    <cellStyle name="標準 2_~1032840" xfId="73"/>
-    <cellStyle name="標準 3" xfId="74"/>
-    <cellStyle name="標準 3 2" xfId="75"/>
-    <cellStyle name="標準 3_1" xfId="76"/>
-    <cellStyle name="標準 4" xfId="77"/>
-    <cellStyle name="標準 5" xfId="78"/>
-    <cellStyle name="標準 6" xfId="79"/>
-    <cellStyle name="標準 7" xfId="80"/>
-    <cellStyle name="標準_20070702_補足フォーム" xfId="81"/>
-    <cellStyle name="標準_TEMRIDX_1_C21DB" xfId="82"/>
-    <cellStyle name="標準_休診登録変更申請書" xfId="84"/>
-    <cellStyle name="標準_変更管理台帳" xfId="130"/>
-    <cellStyle name="標準_画面概要・表示条件" xfId="83"/>
-    <cellStyle name="標準TY" xfId="85"/>
-    <cellStyle name="横倍角(602R)" xfId="104"/>
-    <cellStyle name="汇总" xfId="105"/>
-    <cellStyle name="注释" xfId="129"/>
-    <cellStyle name="磨葬e義" xfId="113"/>
-    <cellStyle name="脱浦 [0.00]_??AN運用P1" xfId="124"/>
-    <cellStyle name="脱浦_??AN運用P1" xfId="125"/>
-    <cellStyle name="表旨巧・・ハイパーリンク" xfId="86"/>
-    <cellStyle name="解释性文本" xfId="108"/>
-    <cellStyle name="警告文本" xfId="109"/>
-    <cellStyle name="计算" xfId="106"/>
-    <cellStyle name="输入" xfId="122"/>
-    <cellStyle name="输出" xfId="121"/>
-    <cellStyle name="适中" xfId="120"/>
-    <cellStyle name="通貨 2" xfId="123"/>
-    <cellStyle name="链接单元格" xfId="110"/>
-    <cellStyle name="・'_x000c_・・・V_x0001_ｳ_x0018_ﾘ0_x0007__x0001__x0001_" xfId="64"/>
+  <cellStyles count="130">
+    <cellStyle name="_20050721　沖縄海邦_格付自己査定　計画書" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="_20050907　沖縄海邦_格付自己査定　計画書" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="_CISremake_CTP_20130130" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="_ＰＯ標準書式２１　コスト計画表" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="_コード定義_20130212" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="_プロジェクトコスト管理表２００６０４０１" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="_別冊1.プロジェクト計画書サンプル" xfId="7" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="W_TSTAFFM_SYO_DB" xfId="8" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
+    <cellStyle name="0.0" xfId="9" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="2（タイトル-Lv2）" xfId="10" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="11" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="12" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="13" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="14" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="15" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="16" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="17" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="18" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="19" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="20" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="21" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="22" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="23" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="24" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="25" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="26" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="27" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="28" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="args.style" xfId="29" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="Body" xfId="30" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="Calc Currency (0)" xfId="31" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
+    <cellStyle name="entry" xfId="32" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
+    <cellStyle name="Grey" xfId="33" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
+    <cellStyle name="Head 1" xfId="34" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="Header1" xfId="35" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="Header2" xfId="36" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="IBM(401K)" xfId="37" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="Input [yellow]" xfId="38" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
+    <cellStyle name="J401K" xfId="39" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="JT帳票" xfId="40" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="Nor}al" xfId="41" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="Normal - Style1" xfId="42" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
+    <cellStyle name="per.style" xfId="43" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
+    <cellStyle name="Percent [2]" xfId="44" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
+    <cellStyle name="price" xfId="45" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
+    <cellStyle name="PSChar" xfId="46" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
+    <cellStyle name="PSHeading" xfId="47" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
+    <cellStyle name="revised" xfId="48" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
+    <cellStyle name="section" xfId="49" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
+    <cellStyle name="SPOl" xfId="50" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="Style 1" xfId="51" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
+    <cellStyle name="subhead" xfId="52" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
+    <cellStyle name="Ｔ２０５" xfId="53" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
+    <cellStyle name="Ｔ２０５１" xfId="54" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
+    <cellStyle name="Ｔ２０５２" xfId="55" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
+    <cellStyle name="Ｔ２０５３" xfId="56" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
+    <cellStyle name="title" xfId="57" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
+    <cellStyle name="スタイル 1" xfId="58" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
+    <cellStyle name="ﾀ" xfId="59" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
+    <cellStyle name="タイトル" xfId="60" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
+    <cellStyle name="タイトル-Lｖ1" xfId="61" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
+    <cellStyle name="パーセント 2" xfId="62" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
+    <cellStyle name="ハイパーリンク 2" xfId="63" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
+    <cellStyle name="・'_x000c_・・・V_x0001_ｳ_x0018_ﾘ0_x0007__x0001__x0001_" xfId="64" xr:uid="{00000000-0005-0000-0000-000082000000}"/>
+    <cellStyle name="标题" xfId="65" xr:uid="{00000000-0005-0000-0000-00005A000000}"/>
+    <cellStyle name="标题 1" xfId="66" xr:uid="{00000000-0005-0000-0000-00005B000000}"/>
+    <cellStyle name="标题 2" xfId="67" xr:uid="{00000000-0005-0000-0000-00005C000000}"/>
+    <cellStyle name="标题 3" xfId="68" xr:uid="{00000000-0005-0000-0000-00005D000000}"/>
+    <cellStyle name="标题 4" xfId="69" xr:uid="{00000000-0005-0000-0000-00005E000000}"/>
+    <cellStyle name="标题_PCISS-ED(ID)-Chg(STD1-2-D97-4)-(20110714)" xfId="70" xr:uid="{00000000-0005-0000-0000-00005F000000}"/>
+    <cellStyle name="標準 2" xfId="71" xr:uid="{00000000-0005-0000-0000-000063000000}"/>
+    <cellStyle name="標準 2 2" xfId="72" xr:uid="{00000000-0005-0000-0000-000064000000}"/>
+    <cellStyle name="標準 2_~1032840" xfId="73" xr:uid="{00000000-0005-0000-0000-000065000000}"/>
+    <cellStyle name="標準 3" xfId="74" xr:uid="{00000000-0005-0000-0000-000066000000}"/>
+    <cellStyle name="標準 3 2" xfId="75" xr:uid="{00000000-0005-0000-0000-000067000000}"/>
+    <cellStyle name="標準 3_1" xfId="76" xr:uid="{00000000-0005-0000-0000-000068000000}"/>
+    <cellStyle name="標準 4" xfId="77" xr:uid="{00000000-0005-0000-0000-000069000000}"/>
+    <cellStyle name="標準 5" xfId="78" xr:uid="{00000000-0005-0000-0000-00006A000000}"/>
+    <cellStyle name="標準 6" xfId="79" xr:uid="{00000000-0005-0000-0000-00006B000000}"/>
+    <cellStyle name="標準 7" xfId="80" xr:uid="{00000000-0005-0000-0000-00006C000000}"/>
+    <cellStyle name="標準_20070702_補足フォーム" xfId="81" xr:uid="{00000000-0005-0000-0000-00006D000000}"/>
+    <cellStyle name="標準_TEMRIDX_1_C21DB" xfId="82" xr:uid="{00000000-0005-0000-0000-00006E000000}"/>
+    <cellStyle name="標準_変更管理台帳" xfId="129" xr:uid="{00000000-0005-0000-0000-000070000000}"/>
+    <cellStyle name="標準_画面概要・表示条件" xfId="83" xr:uid="{00000000-0005-0000-0000-000071000000}"/>
+    <cellStyle name="標準_休診登録変更申請書" xfId="84" xr:uid="{00000000-0005-0000-0000-00006F000000}"/>
+    <cellStyle name="標準TY" xfId="85" xr:uid="{00000000-0005-0000-0000-000072000000}"/>
+    <cellStyle name="表旨巧・・ハイパーリンク" xfId="86" xr:uid="{00000000-0005-0000-0000-000079000000}"/>
+    <cellStyle name="差" xfId="87" xr:uid="{00000000-0005-0000-0000-000049000000}"/>
+    <cellStyle name="差_PCISS-ED(ID)-Chg(STD1-2-D97-4)-(20110714)" xfId="88" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
+    <cellStyle name="差_PCISS-ED(ID)-Chg(STD1-2-D97-4)-(20110714)_ED_C22_4DB" xfId="89" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
+    <cellStyle name="差_PCISS-ED(ID)-Chg(STD1-4-C21-59)-(20110225)" xfId="90" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
+    <cellStyle name="差_PCISS-ED(lD)-Chg(STD1-5-E04-14)-(20110820)" xfId="91" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
+    <cellStyle name="差_PCISS-ED(lD)-Chg(STD1-5-E04-14)-(20110820)_SOL_ED_A40_1Win" xfId="92" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
+    <cellStyle name="差_PCISS-ED(lD)-Chg(STD1-5-E04-14)-(20110820)_SOL_ED_A40_1Win_~4583742" xfId="93" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="好" xfId="94" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
+    <cellStyle name="好_PCISS-ED(ID)-Chg(STD1-2-D97-4)-(20110714)" xfId="95" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
+    <cellStyle name="好_PCISS-ED(ID)-Chg(STD1-2-D97-4)-(20110714)_ED_C22_4DB" xfId="96" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
+    <cellStyle name="好_PCISS-ED(ID)-Chg(STD1-4-C21-59)-(20110225)" xfId="97" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
+    <cellStyle name="好_PCISS-ED(lD)-Chg(STD1-5-E04-14)-(20110820)" xfId="98" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
+    <cellStyle name="好_PCISS-ED(lD)-Chg(STD1-5-E04-14)-(20110820)_SOL_ED_A40_1Win" xfId="99" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
+    <cellStyle name="好_PCISS-ED(lD)-Chg(STD1-5-E04-14)-(20110820)_SOL_ED_A40_1Win_~4583742" xfId="100" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
+    <cellStyle name="桁蟻唇Ｆ [0.00]_laroux" xfId="101" xr:uid="{00000000-0005-0000-0000-000060000000}"/>
+    <cellStyle name="桁蟻唇Ｆ_laroux" xfId="102" xr:uid="{00000000-0005-0000-0000-000061000000}"/>
+    <cellStyle name="横倍角(602R)" xfId="103" xr:uid="{00000000-0005-0000-0000-000073000000}"/>
+    <cellStyle name="汇总" xfId="104" xr:uid="{00000000-0005-0000-0000-000074000000}"/>
+    <cellStyle name="计算" xfId="105" xr:uid="{00000000-0005-0000-0000-00007C000000}"/>
+    <cellStyle name="检查单元格" xfId="106" xr:uid="{00000000-0005-0000-0000-000062000000}"/>
+    <cellStyle name="解释性文本" xfId="107" xr:uid="{00000000-0005-0000-0000-00007A000000}"/>
+    <cellStyle name="警告文本" xfId="108" xr:uid="{00000000-0005-0000-0000-00007B000000}"/>
+    <cellStyle name="链接单元格" xfId="109" xr:uid="{00000000-0005-0000-0000-000081000000}"/>
+    <cellStyle name="明朝(602R)" xfId="110" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
+    <cellStyle name="明朝強調(602R)" xfId="111" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
+    <cellStyle name="磨葬e義" xfId="112" xr:uid="{00000000-0005-0000-0000-000076000000}"/>
+    <cellStyle name="强调文字颜色 1" xfId="113" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
+    <cellStyle name="强调文字颜色 2" xfId="114" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
+    <cellStyle name="强调文字颜色 3" xfId="115" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
+    <cellStyle name="强调文字颜色 4" xfId="116" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
+    <cellStyle name="强调文字颜色 5" xfId="117" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
+    <cellStyle name="强调文字颜色 6" xfId="118" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
+    <cellStyle name="适中" xfId="119" xr:uid="{00000000-0005-0000-0000-00007F000000}"/>
+    <cellStyle name="输出" xfId="120" xr:uid="{00000000-0005-0000-0000-00007E000000}"/>
+    <cellStyle name="输入" xfId="121" xr:uid="{00000000-0005-0000-0000-00007D000000}"/>
+    <cellStyle name="通貨 2" xfId="122" xr:uid="{00000000-0005-0000-0000-000080000000}"/>
+    <cellStyle name="脱浦 [0.00]_??AN運用P1" xfId="123" xr:uid="{00000000-0005-0000-0000-000077000000}"/>
+    <cellStyle name="脱浦_??AN運用P1" xfId="124" xr:uid="{00000000-0005-0000-0000-000078000000}"/>
+    <cellStyle name="未定義" xfId="125" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
+    <cellStyle name="下点線" xfId="126" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
+    <cellStyle name="型番" xfId="127" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
+    <cellStyle name="注释" xfId="128" xr:uid="{00000000-0005-0000-0000-000075000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2088,21 +2117,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="3.3984375" defaultRowHeight="17" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="3.44140625" defaultRowHeight="16.95" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="7.3984375" style="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="22.3984375" style="25" customWidth="1"/>
-    <col min="6" max="16384" width="3.3984375" style="25"/>
+    <col min="1" max="1" width="7.44140625" style="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="22.44140625" style="25" customWidth="1"/>
+    <col min="6" max="16384" width="3.44140625" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="19" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" s="19" customFormat="1" ht="16.95" customHeight="1">
       <c r="A1" s="27" t="s">
         <v>39</v>
       </c>
@@ -2123,7 +2152,7 @@
       <c r="H1" s="18"/>
       <c r="I1" s="18"/>
     </row>
-    <row r="2" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" ht="16.95" customHeight="1">
       <c r="A2" s="20">
         <v>1</v>
       </c>
@@ -2144,7 +2173,7 @@
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
     </row>
-    <row r="3" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" ht="16.95" customHeight="1">
       <c r="A3" s="26"/>
       <c r="B3" s="21"/>
       <c r="C3" s="21"/>
@@ -2155,7 +2184,7 @@
       <c r="H3" s="24"/>
       <c r="I3" s="24"/>
     </row>
-    <row r="4" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" ht="16.95" customHeight="1">
       <c r="A4" s="26"/>
       <c r="B4" s="21"/>
       <c r="C4" s="21"/>
@@ -2166,7 +2195,7 @@
       <c r="H4" s="24"/>
       <c r="I4" s="24"/>
     </row>
-    <row r="5" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" ht="16.95" customHeight="1">
       <c r="A5" s="26"/>
       <c r="B5" s="21"/>
       <c r="C5" s="21"/>
@@ -2177,7 +2206,7 @@
       <c r="H5" s="24"/>
       <c r="I5" s="24"/>
     </row>
-    <row r="6" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" ht="16.95" customHeight="1">
       <c r="A6" s="26"/>
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
@@ -2188,7 +2217,7 @@
       <c r="H6" s="24"/>
       <c r="I6" s="24"/>
     </row>
-    <row r="7" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" ht="16.95" customHeight="1">
       <c r="A7" s="26"/>
       <c r="B7" s="21"/>
       <c r="C7" s="21"/>
@@ -2199,7 +2228,7 @@
       <c r="H7" s="24"/>
       <c r="I7" s="24"/>
     </row>
-    <row r="8" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9" ht="16.95" customHeight="1">
       <c r="A8" s="26"/>
       <c r="B8" s="21"/>
       <c r="C8" s="21"/>
@@ -2210,7 +2239,7 @@
       <c r="H8" s="24"/>
       <c r="I8" s="24"/>
     </row>
-    <row r="9" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9" ht="16.95" customHeight="1">
       <c r="A9" s="26"/>
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
@@ -2221,7 +2250,7 @@
       <c r="H9" s="24"/>
       <c r="I9" s="24"/>
     </row>
-    <row r="10" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9" ht="16.95" customHeight="1">
       <c r="A10" s="26"/>
       <c r="B10" s="21"/>
       <c r="C10" s="21"/>
@@ -2232,26 +2261,26 @@
       <c r="H10" s="24"/>
       <c r="I10" s="24"/>
     </row>
-    <row r="11" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9" ht="16.95" customHeight="1">
       <c r="B11" s="24"/>
     </row>
-    <row r="12" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9" ht="16.95" customHeight="1">
       <c r="B12" s="24"/>
     </row>
-    <row r="13" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9" ht="16.95" customHeight="1">
       <c r="B13" s="24"/>
     </row>
-    <row r="14" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9" ht="16.95" customHeight="1">
       <c r="B14" s="24"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <dataValidations count="3">
-    <dataValidation operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C10"/>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A10">
+    <dataValidation operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C10" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A10" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>1</formula1>
     </dataValidation>
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B10">
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B10" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>39273</formula1>
     </dataValidation>
   </dataValidations>
@@ -2260,34 +2289,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
     <tabColor theme="6"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.3984375" defaultRowHeight="17" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.44140625" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="5.59765625" style="12" customWidth="1"/>
-    <col min="2" max="2" width="22.19921875" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.59765625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="5.5546875" style="12" customWidth="1"/>
+    <col min="2" max="2" width="22.21875" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.5546875" style="7" customWidth="1"/>
     <col min="4" max="4" width="17" style="7" customWidth="1"/>
-    <col min="5" max="5" width="9.59765625" style="7" customWidth="1"/>
-    <col min="6" max="6" width="10.59765625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" style="7" customWidth="1"/>
+    <col min="6" max="6" width="10.5546875" style="7" customWidth="1"/>
     <col min="7" max="7" width="11" style="7" customWidth="1"/>
-    <col min="8" max="8" width="11.19921875" style="7" customWidth="1"/>
-    <col min="9" max="9" width="9.19921875" style="13" customWidth="1"/>
-    <col min="10" max="12" width="9.19921875" style="7" customWidth="1"/>
-    <col min="13" max="13" width="51.19921875" style="7" customWidth="1"/>
-    <col min="14" max="16384" width="10.3984375" style="7"/>
+    <col min="8" max="8" width="11.21875" style="7" customWidth="1"/>
+    <col min="9" max="9" width="9.21875" style="13" customWidth="1"/>
+    <col min="10" max="12" width="9.21875" style="7" customWidth="1"/>
+    <col min="13" max="13" width="51.21875" style="7" customWidth="1"/>
+    <col min="14" max="16384" width="10.44140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" s="1" customFormat="1" ht="13.5" customHeight="1">
       <c r="A1" s="33" t="s">
         <v>10</v>
       </c>
@@ -2308,7 +2337,7 @@
       <c r="L1" s="34"/>
       <c r="M1" s="34"/>
     </row>
-    <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" s="1" customFormat="1">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -2329,7 +2358,7 @@
       <c r="L2" s="34"/>
       <c r="M2" s="34"/>
     </row>
-    <row r="3" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" s="2" customFormat="1">
       <c r="A3" s="29" t="s">
         <v>8</v>
       </c>
@@ -2348,7 +2377,7 @@
       <c r="L3" s="31"/>
       <c r="M3" s="32"/>
     </row>
-    <row r="4" spans="1:13" s="2" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" s="2" customFormat="1" ht="6" customHeight="1">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -2363,7 +2392,7 @@
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
     </row>
-    <row r="5" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" ht="20.25" customHeight="1">
       <c r="A5" s="4" t="s">
         <v>11</v>
       </c>
@@ -2404,7 +2433,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" ht="14.25" customHeight="1">
       <c r="A6" s="8">
         <f>ROW()-5</f>
         <v>1</v>
@@ -2432,7 +2461,7 @@
       <c r="L6" s="17"/>
       <c r="M6" s="10"/>
     </row>
-    <row r="7" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" ht="14.25" customHeight="1">
       <c r="A7" s="8">
         <f t="shared" ref="A7:A11" si="0">ROW()-5</f>
         <v>2</v>
@@ -2460,7 +2489,7 @@
       <c r="L7" s="17"/>
       <c r="M7" s="10"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13">
       <c r="A8" s="8">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -2488,7 +2517,7 @@
       <c r="L8" s="17"/>
       <c r="M8" s="10"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13">
       <c r="A9" s="8">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2512,7 +2541,7 @@
       <c r="L9" s="17"/>
       <c r="M9" s="10"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13">
       <c r="A10" s="8">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2538,7 +2567,7 @@
       <c r="L10" s="17"/>
       <c r="M10" s="10"/>
     </row>
-    <row r="11" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" ht="14.25" customHeight="1">
       <c r="A11" s="8">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2562,7 +2591,7 @@
       <c r="L11" s="17"/>
       <c r="M11" s="10"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13">
       <c r="A12" s="8"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -2577,7 +2606,7 @@
       <c r="L12" s="17"/>
       <c r="M12" s="10"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13">
       <c r="A13" s="8"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -2592,7 +2621,7 @@
       <c r="L13" s="17"/>
       <c r="M13" s="10"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13">
       <c r="A14" s="8"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -2607,7 +2636,7 @@
       <c r="L14" s="17"/>
       <c r="M14" s="10"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13">
       <c r="A15" s="8"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -2622,7 +2651,7 @@
       <c r="L15" s="17"/>
       <c r="M15" s="10"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13">
       <c r="A16" s="8"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -2637,7 +2666,7 @@
       <c r="L16" s="17"/>
       <c r="M16" s="10"/>
     </row>
-    <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:13" ht="15" customHeight="1">
       <c r="A17" s="8"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
@@ -2652,7 +2681,7 @@
       <c r="L17" s="17"/>
       <c r="M17" s="10"/>
     </row>
-    <row r="18" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:13" ht="14.25" customHeight="1">
       <c r="A18" s="8"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
@@ -2667,7 +2696,7 @@
       <c r="L18" s="17"/>
       <c r="M18" s="10"/>
     </row>
-    <row r="19" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:13" ht="14.25" customHeight="1">
       <c r="A19" s="8"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
@@ -2682,7 +2711,7 @@
       <c r="L19" s="17"/>
       <c r="M19" s="10"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:13">
       <c r="A20" s="8"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
@@ -2697,7 +2726,7 @@
       <c r="L20" s="17"/>
       <c r="M20" s="10"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:13">
       <c r="A21" s="8"/>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
@@ -2712,7 +2741,7 @@
       <c r="L21" s="17"/>
       <c r="M21" s="10"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:13">
       <c r="A22" s="8"/>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
@@ -2727,34 +2756,34 @@
       <c r="L22" s="17"/>
       <c r="M22" s="10"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:13">
       <c r="I24" s="7"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:13">
       <c r="I25" s="7"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:13">
       <c r="I26" s="7"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:13">
       <c r="I27" s="7"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:13">
       <c r="I28" s="7"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:13">
       <c r="I29" s="7"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:13">
       <c r="I30" s="7"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:13">
       <c r="I31" s="7"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:13">
       <c r="I32" s="7"/>
     </row>
-    <row r="33" spans="9:9" x14ac:dyDescent="0.15">
+    <row r="33" spans="9:9">
       <c r="I33" s="7"/>
     </row>
   </sheetData>
@@ -2772,14 +2801,15 @@
     <mergeCell ref="C2:F2"/>
     <mergeCell ref="C3:F3"/>
   </mergeCells>
+  <phoneticPr fontId="67" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3 I3 F6:G22">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3 I3 F6:G22" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"○"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L6:L22">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L6:L22" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"日时,日期,时间,英字,数字,英数,货币,电话,手机,邮编,EMAIL,ASCII,ASCII-NS"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="D6:D22">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="D6:D22" xr:uid="{00000000-0002-0000-0100-000002000000}">
       <formula1>"文本,定长文本,长文本,整数,长整数,数值,日期,时间,时间戳,大整数,大数值,二进制对象,字符大对象,自增序列,图片"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2794,34 +2824,34 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr>
     <tabColor theme="6"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="90" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="90" workbookViewId="0">
       <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.3984375" defaultRowHeight="17" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.44140625" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="5.59765625" style="12" customWidth="1"/>
-    <col min="2" max="2" width="22.19921875" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.59765625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="5.5546875" style="12" customWidth="1"/>
+    <col min="2" max="2" width="22.21875" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.5546875" style="7" customWidth="1"/>
     <col min="4" max="4" width="17" style="7" customWidth="1"/>
-    <col min="5" max="5" width="9.59765625" style="7" customWidth="1"/>
-    <col min="6" max="6" width="10.59765625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" style="7" customWidth="1"/>
+    <col min="6" max="6" width="10.5546875" style="7" customWidth="1"/>
     <col min="7" max="7" width="11" style="7" customWidth="1"/>
-    <col min="8" max="8" width="11.19921875" style="7" customWidth="1"/>
-    <col min="9" max="9" width="9.19921875" style="13" customWidth="1"/>
-    <col min="10" max="12" width="9.19921875" style="7" customWidth="1"/>
-    <col min="13" max="13" width="51.19921875" style="7" customWidth="1"/>
-    <col min="14" max="16384" width="10.3984375" style="7"/>
+    <col min="8" max="8" width="11.21875" style="7" customWidth="1"/>
+    <col min="9" max="9" width="9.21875" style="13" customWidth="1"/>
+    <col min="10" max="12" width="9.21875" style="7" customWidth="1"/>
+    <col min="13" max="13" width="51.21875" style="7" customWidth="1"/>
+    <col min="14" max="16384" width="10.44140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" s="1" customFormat="1" ht="13.5" customHeight="1">
       <c r="A1" s="33" t="s">
         <v>10</v>
       </c>
@@ -2842,7 +2872,7 @@
       <c r="L1" s="34"/>
       <c r="M1" s="34"/>
     </row>
-    <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" s="1" customFormat="1">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -2863,7 +2893,7 @@
       <c r="L2" s="34"/>
       <c r="M2" s="34"/>
     </row>
-    <row r="3" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" s="2" customFormat="1">
       <c r="A3" s="29" t="s">
         <v>8</v>
       </c>
@@ -2882,7 +2912,7 @@
       <c r="L3" s="31"/>
       <c r="M3" s="32"/>
     </row>
-    <row r="4" spans="1:13" s="2" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" s="2" customFormat="1" ht="6" customHeight="1">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -2897,7 +2927,7 @@
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
     </row>
-    <row r="5" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" ht="20.25" customHeight="1">
       <c r="A5" s="4" t="s">
         <v>11</v>
       </c>
@@ -2938,7 +2968,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" ht="14.25" customHeight="1">
       <c r="A6" s="8">
         <f>ROW()-5</f>
         <v>1</v>
@@ -2964,7 +2994,7 @@
       <c r="L6" s="17"/>
       <c r="M6" s="10"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13">
       <c r="A7" s="8">
         <f t="shared" ref="A7:A9" si="0">ROW()-5</f>
         <v>2</v>
@@ -2990,7 +3020,7 @@
       <c r="L7" s="17"/>
       <c r="M7" s="10"/>
     </row>
-    <row r="8" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" ht="14.25" customHeight="1">
       <c r="A8" s="8">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -3018,7 +3048,7 @@
       <c r="L8" s="17"/>
       <c r="M8" s="10"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13">
       <c r="A9" s="8">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -3044,7 +3074,7 @@
       <c r="L9" s="17"/>
       <c r="M9" s="10"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13">
       <c r="A10" s="8"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -3059,7 +3089,7 @@
       <c r="L10" s="17"/>
       <c r="M10" s="10"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13">
       <c r="A11" s="8"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -3074,7 +3104,7 @@
       <c r="L11" s="17"/>
       <c r="M11" s="10"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13">
       <c r="A12" s="8"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -3089,7 +3119,7 @@
       <c r="L12" s="17"/>
       <c r="M12" s="10"/>
     </row>
-    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" ht="15" customHeight="1">
       <c r="A13" s="8"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -3104,7 +3134,7 @@
       <c r="L13" s="17"/>
       <c r="M13" s="10"/>
     </row>
-    <row r="14" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" ht="14.25" customHeight="1">
       <c r="A14" s="8"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -3119,7 +3149,7 @@
       <c r="L14" s="17"/>
       <c r="M14" s="10"/>
     </row>
-    <row r="15" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" ht="14.25" customHeight="1">
       <c r="A15" s="8"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -3134,7 +3164,7 @@
       <c r="L15" s="17"/>
       <c r="M15" s="10"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13">
       <c r="A16" s="8"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -3149,7 +3179,7 @@
       <c r="L16" s="17"/>
       <c r="M16" s="10"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:13">
       <c r="A17" s="8"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
@@ -3164,7 +3194,7 @@
       <c r="L17" s="17"/>
       <c r="M17" s="10"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:13">
       <c r="A18" s="8"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
@@ -3179,7 +3209,7 @@
       <c r="L18" s="17"/>
       <c r="M18" s="10"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:13">
       <c r="D19" s="14"/>
       <c r="E19" s="14"/>
       <c r="F19" s="14"/>
@@ -3191,13 +3221,13 @@
       <c r="L19" s="14"/>
       <c r="M19" s="14"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:13">
       <c r="I20" s="7"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:13">
       <c r="I21" s="7"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:13">
       <c r="I22" s="7"/>
     </row>
   </sheetData>
@@ -3215,14 +3245,15 @@
     <mergeCell ref="C2:F2"/>
     <mergeCell ref="C3:F3"/>
   </mergeCells>
+  <phoneticPr fontId="67" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3 F6:G18 C3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3 F6:G18 C3" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"○"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L6:L18">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L6:L18" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"日时,日期,时间,英字,数字,英数,货币,电话,手机,邮编,EMAIL,ASCII,ASCII-NS"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="D6:D18">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="D6:D18" xr:uid="{00000000-0002-0000-0200-000002000000}">
       <formula1>"文本,定长文本,长文本,整数,长整数,数值,日期,时间,时间戳,大整数,大数值,二进制对象,字符大对象,自增序列,图片"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3237,8 +3268,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr>
     <tabColor theme="6"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -3248,23 +3279,23 @@
       <selection activeCell="C2" sqref="C2:F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.3984375" defaultRowHeight="17" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.44140625" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="5.59765625" style="12" customWidth="1"/>
-    <col min="2" max="2" width="22.19921875" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.59765625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="5.5546875" style="12" customWidth="1"/>
+    <col min="2" max="2" width="22.21875" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.5546875" style="7" customWidth="1"/>
     <col min="4" max="4" width="17" style="7" customWidth="1"/>
-    <col min="5" max="5" width="9.59765625" style="7" customWidth="1"/>
-    <col min="6" max="6" width="10.59765625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" style="7" customWidth="1"/>
+    <col min="6" max="6" width="10.5546875" style="7" customWidth="1"/>
     <col min="7" max="7" width="11" style="7" customWidth="1"/>
-    <col min="8" max="8" width="11.19921875" style="7" customWidth="1"/>
-    <col min="9" max="9" width="9.19921875" style="13" customWidth="1"/>
-    <col min="10" max="12" width="9.19921875" style="7" customWidth="1"/>
-    <col min="13" max="13" width="51.19921875" style="7" customWidth="1"/>
-    <col min="14" max="16384" width="10.3984375" style="7"/>
+    <col min="8" max="8" width="11.21875" style="7" customWidth="1"/>
+    <col min="9" max="9" width="9.21875" style="13" customWidth="1"/>
+    <col min="10" max="12" width="9.21875" style="7" customWidth="1"/>
+    <col min="13" max="13" width="51.21875" style="7" customWidth="1"/>
+    <col min="14" max="16384" width="10.44140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" s="1" customFormat="1" ht="13.5" customHeight="1">
       <c r="A1" s="33" t="s">
         <v>10</v>
       </c>
@@ -3285,7 +3316,7 @@
       <c r="L1" s="34"/>
       <c r="M1" s="34"/>
     </row>
-    <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" s="1" customFormat="1">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3306,7 +3337,7 @@
       <c r="L2" s="34"/>
       <c r="M2" s="34"/>
     </row>
-    <row r="3" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" s="2" customFormat="1">
       <c r="A3" s="29" t="s">
         <v>8</v>
       </c>
@@ -3325,7 +3356,7 @@
       <c r="L3" s="31"/>
       <c r="M3" s="32"/>
     </row>
-    <row r="4" spans="1:13" s="2" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" s="2" customFormat="1" ht="6" customHeight="1">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -3340,7 +3371,7 @@
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
     </row>
-    <row r="5" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" ht="20.25" customHeight="1">
       <c r="A5" s="4" t="s">
         <v>11</v>
       </c>
@@ -3381,7 +3412,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" ht="14.25" customHeight="1">
       <c r="A6" s="8">
         <f>ROW()-5</f>
         <v>1</v>
@@ -3409,7 +3440,7 @@
       <c r="L6" s="17"/>
       <c r="M6" s="10"/>
     </row>
-    <row r="7" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" ht="14.25" customHeight="1">
       <c r="A7" s="8">
         <f t="shared" ref="A7:A9" si="0">ROW()-5</f>
         <v>2</v>
@@ -3439,7 +3470,7 @@
       <c r="L7" s="17"/>
       <c r="M7" s="10"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13">
       <c r="A8" s="8">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -3469,7 +3500,7 @@
       <c r="L8" s="17"/>
       <c r="M8" s="10"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13">
       <c r="A9" s="8">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -3495,7 +3526,7 @@
       <c r="L9" s="17"/>
       <c r="M9" s="10"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13">
       <c r="A10" s="8"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -3510,7 +3541,7 @@
       <c r="L10" s="17"/>
       <c r="M10" s="10"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13">
       <c r="A11" s="8"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -3525,7 +3556,7 @@
       <c r="L11" s="17"/>
       <c r="M11" s="10"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13">
       <c r="A12" s="8"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -3540,7 +3571,7 @@
       <c r="L12" s="17"/>
       <c r="M12" s="10"/>
     </row>
-    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" ht="15" customHeight="1">
       <c r="A13" s="8"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -3555,7 +3586,7 @@
       <c r="L13" s="17"/>
       <c r="M13" s="10"/>
     </row>
-    <row r="14" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" ht="14.25" customHeight="1">
       <c r="A14" s="8"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -3570,7 +3601,7 @@
       <c r="L14" s="17"/>
       <c r="M14" s="10"/>
     </row>
-    <row r="15" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" ht="14.25" customHeight="1">
       <c r="A15" s="8"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -3585,7 +3616,7 @@
       <c r="L15" s="17"/>
       <c r="M15" s="10"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13">
       <c r="A16" s="8"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -3600,7 +3631,7 @@
       <c r="L16" s="17"/>
       <c r="M16" s="10"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:13">
       <c r="A17" s="8"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
@@ -3615,7 +3646,7 @@
       <c r="L17" s="17"/>
       <c r="M17" s="10"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:13">
       <c r="A18" s="8"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
@@ -3630,13 +3661,13 @@
       <c r="L18" s="17"/>
       <c r="M18" s="10"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:13">
       <c r="I19" s="7"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:13">
       <c r="I20" s="7"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:13">
       <c r="I21" s="7"/>
     </row>
   </sheetData>
@@ -3654,14 +3685,15 @@
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="C2:F2"/>
   </mergeCells>
+  <phoneticPr fontId="67" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3 C3 F6:G18">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3 C3 F6:G18" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>"○"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L6:L18">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L6:L18" xr:uid="{00000000-0002-0000-0300-000001000000}">
       <formula1>"日时,日期,时间,英字,数字,英数,货币,电话,手机,邮编,EMAIL,ASCII,ASCII-NS"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="D6:D18">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="D6:D18" xr:uid="{00000000-0002-0000-0300-000002000000}">
       <formula1>"文本,定长文本,长文本,整数,长整数,数值,日期,时间,时间戳,大整数,大数值,二进制对象,字符大对象,自增序列,图片"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3676,8 +3708,8 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <sheetPr>
     <tabColor theme="6"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -3687,23 +3719,23 @@
       <selection activeCell="C2" sqref="C2:F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.3984375" defaultRowHeight="17" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.44140625" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="5.59765625" style="12" customWidth="1"/>
-    <col min="2" max="2" width="22.19921875" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.59765625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="5.5546875" style="12" customWidth="1"/>
+    <col min="2" max="2" width="22.21875" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.5546875" style="7" customWidth="1"/>
     <col min="4" max="4" width="17" style="7" customWidth="1"/>
-    <col min="5" max="5" width="9.59765625" style="7" customWidth="1"/>
-    <col min="6" max="6" width="10.59765625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" style="7" customWidth="1"/>
+    <col min="6" max="6" width="10.5546875" style="7" customWidth="1"/>
     <col min="7" max="7" width="11" style="7" customWidth="1"/>
-    <col min="8" max="8" width="11.19921875" style="7" customWidth="1"/>
-    <col min="9" max="9" width="9.19921875" style="13" customWidth="1"/>
-    <col min="10" max="12" width="9.19921875" style="7" customWidth="1"/>
-    <col min="13" max="13" width="51.19921875" style="7" customWidth="1"/>
-    <col min="14" max="16384" width="10.3984375" style="7"/>
+    <col min="8" max="8" width="11.21875" style="7" customWidth="1"/>
+    <col min="9" max="9" width="9.21875" style="13" customWidth="1"/>
+    <col min="10" max="12" width="9.21875" style="7" customWidth="1"/>
+    <col min="13" max="13" width="51.21875" style="7" customWidth="1"/>
+    <col min="14" max="16384" width="10.44140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" s="1" customFormat="1" ht="13.5" customHeight="1">
       <c r="A1" s="33" t="s">
         <v>10</v>
       </c>
@@ -3724,7 +3756,7 @@
       <c r="L1" s="34"/>
       <c r="M1" s="34"/>
     </row>
-    <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" s="1" customFormat="1">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3745,7 +3777,7 @@
       <c r="L2" s="34"/>
       <c r="M2" s="34"/>
     </row>
-    <row r="3" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" s="2" customFormat="1">
       <c r="A3" s="29" t="s">
         <v>8</v>
       </c>
@@ -3764,7 +3796,7 @@
       <c r="L3" s="31"/>
       <c r="M3" s="32"/>
     </row>
-    <row r="4" spans="1:13" s="2" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" s="2" customFormat="1" ht="6" customHeight="1">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -3779,7 +3811,7 @@
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
     </row>
-    <row r="5" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" ht="20.25" customHeight="1">
       <c r="A5" s="28" t="s">
         <v>11</v>
       </c>
@@ -3820,7 +3852,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" ht="14.25" customHeight="1">
       <c r="A6" s="8">
         <f>ROW()-5</f>
         <v>1</v>
@@ -3848,7 +3880,7 @@
       <c r="L6" s="17"/>
       <c r="M6" s="10"/>
     </row>
-    <row r="7" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" ht="14.25" customHeight="1">
       <c r="A7" s="8">
         <f t="shared" ref="A7" si="0">ROW()-5</f>
         <v>2</v>
@@ -3876,7 +3908,7 @@
       <c r="L7" s="17"/>
       <c r="M7" s="10"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13">
       <c r="A8" s="8">
         <v>3</v>
       </c>
@@ -3901,7 +3933,7 @@
       <c r="L8" s="17"/>
       <c r="M8" s="10"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13">
       <c r="A9" s="8"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -3916,7 +3948,7 @@
       <c r="L9" s="17"/>
       <c r="M9" s="10"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13">
       <c r="A10" s="8"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -3931,7 +3963,7 @@
       <c r="L10" s="17"/>
       <c r="M10" s="10"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13">
       <c r="A11" s="8"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -3946,7 +3978,7 @@
       <c r="L11" s="17"/>
       <c r="M11" s="10"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13">
       <c r="A12" s="8"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -3961,7 +3993,7 @@
       <c r="L12" s="17"/>
       <c r="M12" s="10"/>
     </row>
-    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" ht="15" customHeight="1">
       <c r="A13" s="8"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -3976,7 +4008,7 @@
       <c r="L13" s="17"/>
       <c r="M13" s="10"/>
     </row>
-    <row r="14" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" ht="14.25" customHeight="1">
       <c r="A14" s="8"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -3991,7 +4023,7 @@
       <c r="L14" s="17"/>
       <c r="M14" s="10"/>
     </row>
-    <row r="15" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" ht="14.25" customHeight="1">
       <c r="A15" s="8"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -4006,7 +4038,7 @@
       <c r="L15" s="17"/>
       <c r="M15" s="10"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13">
       <c r="A16" s="8"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -4021,7 +4053,7 @@
       <c r="L16" s="17"/>
       <c r="M16" s="10"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:13">
       <c r="A17" s="8"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
@@ -4036,7 +4068,7 @@
       <c r="L17" s="17"/>
       <c r="M17" s="10"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:13">
       <c r="A18" s="8"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
@@ -4051,34 +4083,34 @@
       <c r="L18" s="17"/>
       <c r="M18" s="10"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:13">
       <c r="I20" s="7"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:13">
       <c r="I21" s="7"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:13">
       <c r="I22" s="7"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:13">
       <c r="I23" s="7"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:13">
       <c r="I24" s="7"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:13">
       <c r="I25" s="7"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:13">
       <c r="I26" s="7"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:13">
       <c r="I27" s="7"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:13">
       <c r="I28" s="7"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:13">
       <c r="I29" s="7"/>
     </row>
   </sheetData>
@@ -4096,23 +4128,24 @@
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:M2"/>
   </mergeCells>
+  <phoneticPr fontId="67" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3 I3 F6:G18">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3 I3 F6:G18" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>"○"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="D6:D18">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="D6:D18" xr:uid="{00000000-0002-0000-0400-000001000000}">
       <formula1>"文本,定长文本,长文本,整数,长整数,数值,日期,时间,时间戳,大整数,大数值,二进制对象,字符大对象,自增序列,图片"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L6:L18">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L6:L18" xr:uid="{00000000-0002-0000-0400-000002000000}">
       <formula1>"日时,日期,时间,英字,数字,英数,货币,电话,手机,邮编,EMAIL,ASCII,ASCII-NS"</formula1>
     </dataValidation>
   </dataValidations>
   <printOptions gridLinesSet="0"/>
   <pageMargins left="0.78740157480314954" right="0.78740157480314954" top="0.78740157480314954" bottom="0.78740157480314954" header="0.39370078740157477" footer="0.39370078740157477"/>
-  <pageSetup paperSize="9" scale="60" fitToHeight="0" orientation="portrait"/>
+  <pageSetup paperSize="9" scale="60" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Meiryo UI,標準"&amp;10&amp;P/&amp;N&amp;R&amp;"Meiryo UI,標準"&amp;10©Copyright IBM Japan, Ltd. 2013</oddFooter>
   </headerFooter>
-  <legacyDrawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>